--- a/a_bom_http_source.xlsx
+++ b/a_bom_http_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Santosh\Intuitio\ADF-Clientry Demo\Clientry\ds_http_csv-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7FEDB-5322-4F1A-8DB5-C8ED4C5CAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C1C118-B2A7-4C3E-AB46-4D6BD12D63EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ex_Id</t>
   </si>
@@ -46,12 +46,6 @@
     <t>a007Q00000CAA1E_ExcelNameCol</t>
   </si>
   <si>
-    <t>a007Q00000CAA2f_ExcelNameCol</t>
-  </si>
-  <si>
-    <t>a007Q00000CA9ne_ExcelNameCol</t>
-  </si>
-  <si>
     <t>Perusliitin G1/2" ulkok + ED_ExcelDescCol</t>
   </si>
   <si>
@@ -59,6 +53,15 @@
   </si>
   <si>
     <t>Perusliitin G3/8" ulkok + ED_ExcelDescCol</t>
+  </si>
+  <si>
+    <t>a007Q00000CAA2f_ExcelNameCol_UnwantedName1</t>
+  </si>
+  <si>
+    <t>a007Q00000CA9ne_ExcelNameCol_UnwantedName2</t>
+  </si>
+  <si>
+    <t>Aluslevypari  M8, NL8SP_ExcelDescCol_UnwantedDesc1</t>
   </si>
 </sst>
 </file>
@@ -901,12 +904,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -959,7 +964,7 @@
         <v>8452574</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -970,13 +975,13 @@
         <v>64041</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>821226</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -987,13 +992,13 @@
         <v>64041</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>8452890</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1004,13 +1009,13 @@
         <v>64041</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>8446806</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/a_bom_http_source.xlsx
+++ b/a_bom_http_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Santosh\Intuitio\ADF-Clientry Demo\Clientry\ds_http_csv-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C1C118-B2A7-4C3E-AB46-4D6BD12D63EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DF4EB-4EEA-4CEE-9E6D-4AF87DD32673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ex_Id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Aluslevypari  M8, NL8SP_ExcelDescCol_UnwantedDesc1</t>
+  </si>
+  <si>
+    <t>Aluslevypari  M8, NL8SP_ExcelDescCol_IMP</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,7 +967,7 @@
         <v>8452574</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">

--- a/a_bom_http_source.xlsx
+++ b/a_bom_http_source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Santosh\Intuitio\ADF-Clientry Demo\Clientry\ds_http_csv-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tayad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DF4EB-4EEA-4CEE-9E6D-4AF87DD32673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA94C298-7B6A-44A9-887B-7C76FA6CD906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ex_Id</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Asset_Description_Ex</t>
-  </si>
-  <si>
-    <t>Aluslevypari  M8, NL8SP_ExcelDescCol</t>
   </si>
   <si>
     <t>a007Q00000CAA11_ExcelNameCol</t>
@@ -908,7 +905,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,13 +941,13 @@
         <v>64041</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>8449648</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -961,13 +958,13 @@
         <v>64041</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>8452574</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -978,13 +975,13 @@
         <v>64041</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>821226</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -995,13 +992,13 @@
         <v>64041</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>8452890</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1012,13 +1009,13 @@
         <v>64041</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>8446806</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
